--- a/data/rooms_lin_sizes.xlsx
+++ b/data/rooms_lin_sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\python_scripts\optimize\brother_square\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voev\OneDrive - Columbus\av_doc\NroomsOpti\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{34F1D3E2-5033-4CD7-B3C0-963F8DFFD55F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{29176AEF-9D5B-4CD6-80D6-CA5E304A7F23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78121A2E-42A9-4FE2-AE53-BA83D8ED6DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="216" windowWidth="20052" windowHeight="11520" xr2:uid="{7C33761E-579C-4D63-A53C-FA565E661C28}"/>
+    <workbookView xWindow="2580" yWindow="432" windowWidth="20052" windowHeight="11748" xr2:uid="{7C33761E-579C-4D63-A53C-FA565E661C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +58,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,92 +423,92 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
     </row>
